--- a/story/Activity Story 活动剧情/act6d5 Ancient Forge 洪炉示岁 洪炉示歳/level_act6d5_st03.xlsx
+++ b/story/Activity Story 活动剧情/act6d5 Ancient Forge 洪炉示岁 洪炉示歳/level_act6d5_st03.xlsx
@@ -4040,7 +4040,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lava"]   "Her weakness."
+    <t xml:space="preserve">[name="Lava"]   'Her weakness.'
 </t>
   </si>
   <si>
@@ -4048,7 +4048,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lava"]   The good news is that the "Nian" is eager to communicate with us.
+    <t xml:space="preserve">[name="Lava"]   The good news is that the 'Nian' is eager to communicate with us.
 </t>
   </si>
   <si>
@@ -4108,7 +4108,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lava"]   No record of the "Nian" has ever described her face, let alone her weaknesses. But a trip to Yen led me to some new discoveries.
+    <t xml:space="preserve">[name="Lava"]   No record of the 'Nian' has ever described her face, let alone her weaknesses. But a trip to Yen led me to some new discoveries.
 </t>
   </si>
   <si>
@@ -4136,11 +4136,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lava"]   "Fear the noise, fear the flame."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Lava"]   If the Nian's function really is "smelting", then a firecracker doesn't pose a threat to her at all.
+    <t xml:space="preserve">[name="Lava"]   'Fear the noise, fear the flame.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lava"]   If the Nian's function really is 'smelting', then a firecracker doesn't pose a threat to her at all.
 </t>
   </si>
   <si>
@@ -4204,7 +4204,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lava"]   The hunter traps the beast by taking advantage of its nature. And what we call "personality" is just nature in a fancy package.
+    <t xml:space="preserve">[name="Lava"]   The hunter traps the beast by taking advantage of its nature. And what we call 'personality' is just nature in a fancy package.
 </t>
   </si>
   <si>
@@ -4288,7 +4288,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]   If that operator hadn't told us to look out for her "sword," I never would have called that a "sword."
+    <t xml:space="preserve">[name="Ch'en"]   If that operator hadn't told us to look out for her 'sword,' I never would have called that a 'sword.'
 </t>
   </si>
   <si>
@@ -4312,7 +4312,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nian"]   Ooh no. I think here is where I say "I won't soil my own hands here. You're not worth my time."
+    <t xml:space="preserve">[name="Nian"]   Ooh no. I think here is where I say 'I won't soil my own hands here. You're not worth my time.'
 </t>
   </si>
   <si>
@@ -4340,7 +4340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nian"]   The past three days, with nothing else to do, I've been polishing up these "Reunion" things.
+    <t xml:space="preserve">[name="Nian"]   The past three days, with nothing else to do, I've been polishing up these 'Reunion' things.
 </t>
   </si>
   <si>
@@ -4844,7 +4844,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lava"]   ...Did you just say "kill each other?"
+    <t xml:space="preserve">[name="Lava"]   ...Did you just say 'kill each other?'
 </t>
   </si>
   <si>
@@ -4904,7 +4904,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nian"]   "But...?" Where's the "but?"
+    <t xml:space="preserve">[name="Nian"]   'But...?' Where's the 'but?'
 </t>
   </si>
   <si>
@@ -5060,7 +5060,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nian"]   Let's count down "three, two, one" and then blow the place together?
+    <t xml:space="preserve">[name="Nian"]   Let's count down 'three, two, one' and then blow the place together?
 </t>
   </si>
   <si>
@@ -5276,7 +5276,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nian"]   "Zhendang Kongling, Bayin Siqi——"
+    <t xml:space="preserve">[name="Nian"]   'Zhendang Kongling, Bayin Siqi——'
 </t>
   </si>
   <si>
@@ -5468,7 +5468,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nian"]   All you need is words like "fire", "slaughter", "cycle", and a little bitterness, a little darker lighting, a little more camera shake, a little more blood, and you've got a picture!
+    <t xml:space="preserve">[name="Nian"]   All you need is words like 'fire', 'slaughter', 'cycle', and a little bitterness, a little darker lighting, a little more camera shake, a little more blood, and you've got a picture!
 </t>
   </si>
   <si>
@@ -5528,7 +5528,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Closure"]   "Don't allow standard operators to view classified records."
+    <t xml:space="preserve">[name="Closure"]   'Don't allow standard operators to view classified records.'
 </t>
   </si>
   <si>
@@ -5592,7 +5592,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nian"]   A script is pretty much a "story" anyway, so I think li'l Lava can figure it out.
+    <t xml:space="preserve">[name="Nian"]   A script is pretty much a 'story' anyway, so I think li'l Lava can figure it out.
 </t>
   </si>
   <si>
@@ -5660,7 +5660,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nian"]   I am working hard! I'll lend you "Lungmen Doomwatch" for a little historical research, and the real issue with it is...
+    <t xml:space="preserve">[name="Nian"]   I am working hard! I'll lend you 'Lungmen Doomwatch' for a little historical research, and the real issue with it is...
 </t>
   </si>
   <si>
@@ -5668,7 +5668,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nian"]   Doesn't the title kinda suck? What's a "Doomwatch?"
+    <t xml:space="preserve">[name="Nian"]   Doesn't the title kinda suck? What's a 'Doomwatch?'
 </t>
   </si>
   <si>
@@ -5676,7 +5676,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Closure"]   How about "Ancient Forge"!
+    <t xml:space="preserve">[name="Closure"]   How about 'Ancient Forge'!
 </t>
   </si>
   <si>
@@ -5700,7 +5700,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nian"]   Oh, do you think I should add "based on true events"? Is that too scary? Would it freak out li'l Lava?
+    <t xml:space="preserve">[name="Nian"]   Oh, do you think I should add 'based on true events'? Is that too scary? Would it freak out li'l Lava?
 </t>
   </si>
   <si>
@@ -5844,7 +5844,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lava"]   "Lungmen's hot peppers aren't spicy enough."
+    <t xml:space="preserve">[name="Lava"]   'Lungmen's hot peppers aren't spicy enough.'
 </t>
   </si>
   <si>
@@ -6372,7 +6372,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스노우상트"]   어어…… 그건 엔지니어부서 기밀인데다 절차도 복잡한데…… 어디에 쓰시려고요?
+    <t xml:space="preserve">[name="스노우상트"]   어어…… 그건 엔지니어링부 기밀인데다 절차도 복잡한데…… 어디에 쓰시려고요?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act6d5 Ancient Forge 洪炉示岁 洪炉示歳/level_act6d5_st03.xlsx
+++ b/story/Activity Story 活动剧情/act6d5 Ancient Forge 洪炉示岁 洪炉示歳/level_act6d5_st03.xlsx
@@ -3952,7 +3952,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">4:21 AM \ Cloudy
+    <t xml:space="preserve">4:21 A.M. \ Cloudy
 </t>
   </si>
   <si>
